--- a/src/main/resources/receiver_info.xlsx
+++ b/src/main/resources/receiver_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chacker\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Awork\BP\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F399A9B8-CACC-4CD6-9275-DF13036CF069}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F94BB01-D037-4313-983E-D9B501E89255}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,65 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Chacker</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3B20CB63-C509-4364-99B5-7E7D69E88436}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Chacker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+唯一不可重复</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AF616DE0-AD1A-4CD3-B118-0E4DB63F96FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Chacker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+MD5加密方式32位大写加密
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +124,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,16 +440,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="27.5546875" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="29.21875" customWidth="1"/>
@@ -385,24 +458,25 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>